--- a/buku-tahfidz-lengkap/versi-2/ziyadah.xlsx
+++ b/buku-tahfidz-lengkap/versi-2/ziyadah.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\github\buku-tahfidz\buku-tahfidz-lengkap\versi 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\buku-tahfidz\buku-tahfidz-lengkap\versi-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E216DD2C-96CD-455E-90B1-01C1216E626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BBEEFD-400F-4C46-BC6C-5A36923EF766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$1:$N$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>شهر :</t>
   </si>
@@ -92,6 +93,9 @@
   </si>
   <si>
     <t xml:space="preserve">                Rasib : &gt;3 kesalahan</t>
+  </si>
+  <si>
+    <t>حلقة ٦</t>
   </si>
 </sst>
 </file>
@@ -223,7 +227,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,7 +280,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,73 +563,78 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L38"/>
+      <selection activeCell="G1" sqref="G1:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="C1" t="s">
+    <row r="1" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="C1" s="10"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="J1" s="17"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
-    </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>8</v>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="16"/>
       <c r="G2" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -633,12 +645,14 @@
       <c r="H3" s="13"/>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -649,12 +663,14 @@
       <c r="H4" s="13"/>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
@@ -665,12 +681,14 @@
       <c r="H5" s="13"/>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -681,12 +699,14 @@
       <c r="H6" s="13"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
@@ -697,12 +717,14 @@
       <c r="H7" s="13"/>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="3"/>
@@ -713,12 +735,14 @@
       <c r="H8" s="14"/>
       <c r="I8" s="3"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -729,12 +753,14 @@
       <c r="H9" s="13"/>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -745,12 +771,14 @@
       <c r="H10" s="13"/>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="12"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -761,12 +789,14 @@
       <c r="H11" s="13"/>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="12"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -777,12 +807,14 @@
       <c r="H12" s="13"/>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="12"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -793,12 +825,14 @@
       <c r="H13" s="13"/>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="12"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="14"/>
       <c r="C14" s="3"/>
@@ -809,12 +843,14 @@
       <c r="H14" s="14"/>
       <c r="I14" s="3"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -825,12 +861,14 @@
       <c r="H15" s="13"/>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="12"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -841,12 +879,14 @@
       <c r="H16" s="13"/>
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="12"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -857,12 +897,14 @@
       <c r="H17" s="13"/>
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="12"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -873,12 +915,14 @@
       <c r="H18" s="13"/>
       <c r="I18" s="12"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="12"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -889,12 +933,14 @@
       <c r="H19" s="13"/>
       <c r="I19" s="12"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="12"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="14"/>
       <c r="C20" s="3"/>
@@ -905,12 +951,14 @@
       <c r="H20" s="14"/>
       <c r="I20" s="3"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -921,12 +969,14 @@
       <c r="H21" s="13"/>
       <c r="I21" s="12"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -937,12 +987,14 @@
       <c r="H22" s="13"/>
       <c r="I22" s="12"/>
       <c r="J22" s="13"/>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="12"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -953,12 +1005,14 @@
       <c r="H23" s="13"/>
       <c r="I23" s="12"/>
       <c r="J23" s="13"/>
-      <c r="K23" s="4" t="s">
+      <c r="K23" s="12"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -969,12 +1023,14 @@
       <c r="H24" s="13"/>
       <c r="I24" s="12"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="12"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -985,13 +1041,15 @@
       <c r="H25" s="13"/>
       <c r="I25" s="12"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="12"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="4"/>
-      <c r="X25" s="9"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N25" s="4"/>
+      <c r="Z25" s="9"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="14"/>
       <c r="C26" s="3"/>
@@ -1002,12 +1060,14 @@
       <c r="H26" s="14"/>
       <c r="I26" s="3"/>
       <c r="J26" s="14"/>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="3"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -1018,12 +1078,14 @@
       <c r="H27" s="13"/>
       <c r="I27" s="12"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="4" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -1034,12 +1096,14 @@
       <c r="H28" s="13"/>
       <c r="I28" s="12"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -1050,12 +1114,14 @@
       <c r="H29" s="13"/>
       <c r="I29" s="12"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -1066,12 +1132,14 @@
       <c r="H30" s="13"/>
       <c r="I30" s="12"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="4" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -1082,12 +1150,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="12"/>
       <c r="J31" s="13"/>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:24" ht="17.100000000000001" customHeight="1">
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="14"/>
       <c r="C32" s="3"/>
@@ -1098,60 +1168,77 @@
       <c r="H32" s="14"/>
       <c r="I32" s="3"/>
       <c r="J32" s="14"/>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="3"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L32" s="6"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="B34" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="E35" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="J35" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="E36" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="11"/>
-      <c r="E37" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="N32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="11" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04FA41B-CE8B-45BC-933D-CDB8BF3659C5}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="B1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="E2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11"/>
+      <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/buku-tahfidz-lengkap/versi-2/ziyadah.xlsx
+++ b/buku-tahfidz-lengkap/versi-2/ziyadah.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\github\buku-tahfidz\buku-tahfidz-lengkap\versi-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\github\buku-tahfidz\buku-tahfidz-lengkap\versi-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BBEEFD-400F-4C46-BC6C-5A36923EF766}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481E4178-AF84-4D65-B215-A467F0F1C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
+    <sheet name="kiri" sheetId="4" r:id="rId1"/>
+    <sheet name="kanan" sheetId="6" r:id="rId2"/>
+    <sheet name="lengkap" sheetId="7" r:id="rId3"/>
+    <sheet name="sampah" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$G$1:$N$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kanan!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">kiri!$A$1:$F$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">lengkap!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
   <si>
     <t>شهر :</t>
   </si>
@@ -273,14 +277,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,70 +567,791 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="4.7109375" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1">
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="15" t="s">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:18" ht="18" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:18" ht="18" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:18" ht="18" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" ht="18" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18295044-9E34-4B08-AADC-05424CBE4C70}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="15" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="T25" s="9"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C2DFFE-63B5-4AD5-8CE2-F26AFAA55B5B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Z32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" activeCellId="2" sqref="A1:B1048576 C1:D1048576 E1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18" customHeight="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="17"/>
       <c r="M2" s="1" t="s">
         <v>3</v>
       </c>
@@ -634,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:14" ht="18" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -652,7 +1377,7 @@
       </c>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:14" ht="18" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
@@ -670,7 +1395,7 @@
       </c>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:14" ht="18" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
@@ -688,7 +1413,7 @@
       </c>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:14" ht="18" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
@@ -706,7 +1431,7 @@
       </c>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:14" ht="18" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
@@ -724,7 +1449,7 @@
       </c>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="3"/>
@@ -742,7 +1467,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
@@ -760,7 +1485,7 @@
       </c>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
@@ -778,7 +1503,7 @@
       </c>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
@@ -796,7 +1521,7 @@
       </c>
       <c r="N11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
@@ -814,7 +1539,7 @@
       </c>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
@@ -832,7 +1557,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="14"/>
       <c r="C14" s="3"/>
@@ -850,7 +1575,7 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
@@ -868,7 +1593,7 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
@@ -886,7 +1611,7 @@
       </c>
       <c r="N16" s="4"/>
     </row>
-    <row r="17" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:26" ht="18" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
@@ -904,7 +1629,7 @@
       </c>
       <c r="N17" s="4"/>
     </row>
-    <row r="18" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:26" ht="18" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
@@ -922,7 +1647,7 @@
       </c>
       <c r="N18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:26" ht="18" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
@@ -940,7 +1665,7 @@
       </c>
       <c r="N19" s="4"/>
     </row>
-    <row r="20" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:26" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="14"/>
       <c r="C20" s="3"/>
@@ -958,7 +1683,7 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:26" ht="18" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
@@ -976,7 +1701,7 @@
       </c>
       <c r="N21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:26" ht="18" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
@@ -994,7 +1719,7 @@
       </c>
       <c r="N22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:26" ht="18" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
@@ -1012,7 +1737,7 @@
       </c>
       <c r="N23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:26" ht="18" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
@@ -1030,7 +1755,7 @@
       </c>
       <c r="N24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:26" ht="18" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
@@ -1049,7 +1774,7 @@
       <c r="N25" s="4"/>
       <c r="Z25" s="9"/>
     </row>
-    <row r="26" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:26" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="14"/>
       <c r="C26" s="3"/>
@@ -1067,7 +1792,7 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:26" ht="18" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
@@ -1085,7 +1810,7 @@
       </c>
       <c r="N27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:26" ht="18" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
@@ -1103,7 +1828,7 @@
       </c>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:26" ht="18" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
@@ -1121,7 +1846,7 @@
       </c>
       <c r="N29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:26" ht="18" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
@@ -1139,7 +1864,7 @@
       </c>
       <c r="N30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:26" ht="18" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
@@ -1157,7 +1882,7 @@
       </c>
       <c r="N31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:26" ht="18" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="14"/>
       <c r="C32" s="3"/>
@@ -1177,20 +1902,20 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="11" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04FA41B-CE8B-45BC-933D-CDB8BF3659C5}">
   <dimension ref="A1:J5"/>
   <sheetViews>

--- a/buku-tahfidz-lengkap/versi-2/ziyadah.xlsx
+++ b/buku-tahfidz-lengkap/versi-2/ziyadah.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ZEN-PROJECT\github\buku-tahfidz\buku-tahfidz-lengkap\versi-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481E4178-AF84-4D65-B215-A467F0F1C1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDA487-49FE-4006-A5DD-9D74663C50BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="sampah" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">kanan!$A$1:$H$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">kanan!$A$1:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">kiri!$A$1:$F$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">lengkap!$A$1:$F$32</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
   <si>
     <t>شهر :</t>
   </si>
@@ -280,13 +280,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +570,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F32"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -590,16 +590,16 @@
       <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>23</v>
+      <c r="A2" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="17"/>
     </row>
@@ -861,421 +861,353 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="15"/>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="16" t="s">
-        <v>5</v>
+      <c r="C2" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="14"/>
       <c r="C8" s="3"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="12"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="12"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="12"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="14"/>
       <c r="C14" s="3"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1">
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="18" customHeight="1">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" ht="18" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" ht="18" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:18" ht="18" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="14"/>
       <c r="C20" s="3"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="12"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="12"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" customHeight="1">
       <c r="A25" s="12"/>
       <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1">
+      <c r="F25" s="4"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="14"/>
       <c r="C26" s="3"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:18" ht="18" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1">
       <c r="A28" s="12"/>
       <c r="B28" s="13"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1">
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1">
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1">
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="14"/>
       <c r="C32" s="3"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -1328,27 +1260,27 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="17"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="17"/>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J2" s="17"/>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="17"/>
@@ -1902,12 +1834,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
